--- a/A001_billing/billing_files_structure/example.xlsx
+++ b/A001_billing/billing_files_structure/example.xlsx
@@ -11,13 +11,14 @@
     <sheet name="counts_value_col_sector" sheetId="2" r:id="rId2"/>
     <sheet name="counts_value_location" sheetId="3" r:id="rId3"/>
     <sheet name="discribe data" sheetId="4" r:id="rId4"/>
+    <sheet name="invest in company" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="617">
   <si>
     <t>Company Name</t>
   </si>
@@ -89,6 +90,1785 @@
   </si>
   <si>
     <t>Undisclosed</t>
+  </si>
+  <si>
+    <t>AGRIM</t>
+  </si>
+  <si>
+    <t>AarogyaAI</t>
+  </si>
+  <si>
+    <t>Aastey</t>
+  </si>
+  <si>
+    <t>Accel</t>
+  </si>
+  <si>
+    <t>Accelero Vehicles</t>
+  </si>
+  <si>
+    <t>Acko</t>
+  </si>
+  <si>
+    <t>Actyv.ai</t>
+  </si>
+  <si>
+    <t>Addverb Technologies</t>
+  </si>
+  <si>
+    <t>Adicube</t>
+  </si>
+  <si>
+    <t>Adyaway</t>
+  </si>
+  <si>
+    <t>Aerostrovilos Energy</t>
+  </si>
+  <si>
+    <t>Agasta</t>
+  </si>
+  <si>
+    <t>AjnaLens</t>
+  </si>
+  <si>
+    <t>Allegis Group</t>
+  </si>
+  <si>
+    <t>AltUni</t>
+  </si>
+  <si>
+    <t>Altigreen</t>
+  </si>
+  <si>
+    <t>Amagi</t>
+  </si>
+  <si>
+    <t>Amagi Media Labs</t>
+  </si>
+  <si>
+    <t>Anveya Living</t>
+  </si>
+  <si>
+    <t>AppX</t>
+  </si>
+  <si>
+    <t>Appsforbharat</t>
+  </si>
+  <si>
+    <t>Aqgromalin</t>
+  </si>
+  <si>
+    <t>Aquaconnect</t>
+  </si>
+  <si>
+    <t>Arrivae</t>
+  </si>
+  <si>
+    <t>Arya.Ag</t>
+  </si>
+  <si>
+    <t>AssetPlus</t>
+  </si>
+  <si>
+    <t>Aulerth</t>
+  </si>
+  <si>
+    <t>Avataar</t>
+  </si>
+  <si>
+    <t>Aye Finance</t>
+  </si>
+  <si>
+    <t>Bambrew</t>
+  </si>
+  <si>
+    <t>Beatoven AI</t>
+  </si>
+  <si>
+    <t>Bebe Burp</t>
+  </si>
+  <si>
+    <t>Better Opinions</t>
+  </si>
+  <si>
+    <t>Bhanzu</t>
+  </si>
+  <si>
+    <t>BharatPe</t>
+  </si>
+  <si>
+    <t>BharatX</t>
+  </si>
+  <si>
+    <t>Birdeye</t>
+  </si>
+  <si>
+    <t>Black Bow</t>
+  </si>
+  <si>
+    <t>Blackbuck</t>
+  </si>
+  <si>
+    <t>Blue Tokai</t>
+  </si>
+  <si>
+    <t>BlueStone</t>
+  </si>
+  <si>
+    <t>Bold Finance</t>
+  </si>
+  <si>
+    <t>Bombay Shaving Company</t>
+  </si>
+  <si>
+    <t>Bonsaro</t>
+  </si>
+  <si>
+    <t>Broomees</t>
+  </si>
+  <si>
+    <t>Bugworks</t>
+  </si>
+  <si>
+    <t>Burgerama</t>
+  </si>
+  <si>
+    <t>Bytebeam</t>
+  </si>
+  <si>
+    <t>CARD91</t>
+  </si>
+  <si>
+    <t>CARS24</t>
+  </si>
+  <si>
+    <t>CASHe</t>
+  </si>
+  <si>
+    <t>Captain Fresh</t>
+  </si>
+  <si>
+    <t>Carbanio</t>
+  </si>
+  <si>
+    <t>CarzSo India</t>
+  </si>
+  <si>
+    <t>CellStrat</t>
+  </si>
+  <si>
+    <t>Cercle X</t>
+  </si>
+  <si>
+    <t>CertifyMe</t>
+  </si>
+  <si>
+    <t>Chalo</t>
+  </si>
+  <si>
+    <t>Chargebee</t>
+  </si>
+  <si>
+    <t>Chargeup</t>
+  </si>
+  <si>
+    <t>Chhotastock</t>
+  </si>
+  <si>
+    <t>Chingari</t>
+  </si>
+  <si>
+    <t>CityMall</t>
+  </si>
+  <si>
+    <t>ClaimBuddy</t>
+  </si>
+  <si>
+    <t>Classplus</t>
+  </si>
+  <si>
+    <t>Cloud Tailor</t>
+  </si>
+  <si>
+    <t>CoinDCX</t>
+  </si>
+  <si>
+    <t>CoinSwitch Kuber</t>
+  </si>
+  <si>
+    <t>Com Olho</t>
+  </si>
+  <si>
+    <t>CommerceIQ</t>
+  </si>
+  <si>
+    <t>Cosmofeed</t>
+  </si>
+  <si>
+    <t>Courseplay</t>
+  </si>
+  <si>
+    <t>CredAvenue</t>
+  </si>
+  <si>
+    <t>CredoPay</t>
+  </si>
+  <si>
+    <t>CureSkin</t>
+  </si>
+  <si>
+    <t>DMI Finance</t>
+  </si>
+  <si>
+    <t>DaMENSCH</t>
+  </si>
+  <si>
+    <t>DailyHunt</t>
+  </si>
+  <si>
+    <t>Darwinbox</t>
+  </si>
+  <si>
+    <t>Data Science Wizards</t>
+  </si>
+  <si>
+    <t>DealShare</t>
+  </si>
+  <si>
+    <t>Desi Hangover</t>
+  </si>
+  <si>
+    <t>Diginoor</t>
+  </si>
+  <si>
+    <t>Digits</t>
+  </si>
+  <si>
+    <t>Doceree</t>
+  </si>
+  <si>
+    <t>Dogsee Chew</t>
+  </si>
+  <si>
+    <t>Doubtnut</t>
+  </si>
+  <si>
+    <t>Droom</t>
+  </si>
+  <si>
+    <t>Dunzo</t>
+  </si>
+  <si>
+    <t>Dvara SmartGold</t>
+  </si>
+  <si>
+    <t>Dyte</t>
+  </si>
+  <si>
+    <t>EPNS</t>
+  </si>
+  <si>
+    <t>EVage</t>
+  </si>
+  <si>
+    <t>Eat Better Ventures</t>
+  </si>
+  <si>
+    <t>Ecom Express</t>
+  </si>
+  <si>
+    <t>EdgeGrid</t>
+  </si>
+  <si>
+    <t>Edustoke</t>
+  </si>
+  <si>
+    <t>Ekank Technologies</t>
+  </si>
+  <si>
+    <t>ElasticRun</t>
+  </si>
+  <si>
+    <t>Elever</t>
+  </si>
+  <si>
+    <t>Emeritus</t>
+  </si>
+  <si>
+    <t>Enphase Energy</t>
+  </si>
+  <si>
+    <t>Ensologic</t>
+  </si>
+  <si>
+    <t>Entri.app</t>
+  </si>
+  <si>
+    <t>Epigeneres Biotech</t>
+  </si>
+  <si>
+    <t>Eruditus</t>
+  </si>
+  <si>
+    <t>EsportsXO</t>
+  </si>
+  <si>
+    <t>Euler</t>
+  </si>
+  <si>
+    <t>Excellent Publicity</t>
+  </si>
+  <si>
+    <t>Eximpe</t>
+  </si>
+  <si>
+    <t>Exotel</t>
+  </si>
+  <si>
+    <t>Fanztar</t>
+  </si>
+  <si>
+    <t>FarMart</t>
+  </si>
+  <si>
+    <t>Ferns N Petals</t>
+  </si>
+  <si>
+    <t>Filo</t>
+  </si>
+  <si>
+    <t>Finarkein Analytics</t>
+  </si>
+  <si>
+    <t>Finova Capital</t>
+  </si>
+  <si>
+    <t>Finsall</t>
+  </si>
+  <si>
+    <t>FirstCry</t>
+  </si>
+  <si>
+    <t>FirstCure Health</t>
+  </si>
+  <si>
+    <t>Fivetran</t>
+  </si>
+  <si>
+    <t>Fleetx.io</t>
+  </si>
+  <si>
+    <t>FlexifyMe</t>
+  </si>
+  <si>
+    <t>Flint</t>
+  </si>
+  <si>
+    <t>ForeignAdmits</t>
+  </si>
+  <si>
+    <t>Freadom</t>
+  </si>
+  <si>
+    <t>Freecultr</t>
+  </si>
+  <si>
+    <t>FreshMenu</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Fyllo</t>
+  </si>
+  <si>
+    <t>GIVA</t>
+  </si>
+  <si>
+    <t>GOQii</t>
+  </si>
+  <si>
+    <t>GPS Renewables</t>
+  </si>
+  <si>
+    <t>GROWiT</t>
+  </si>
+  <si>
+    <t>GameEon Studio</t>
+  </si>
+  <si>
+    <t>Gamerji</t>
+  </si>
+  <si>
+    <t>Games24x7</t>
+  </si>
+  <si>
+    <t>Geniemode</t>
+  </si>
+  <si>
+    <t>Glamplus</t>
+  </si>
+  <si>
+    <t>Glip</t>
+  </si>
+  <si>
+    <t>GoalTeller</t>
+  </si>
+  <si>
+    <t>Goldenpi</t>
+  </si>
+  <si>
+    <t>Goldsetu</t>
+  </si>
+  <si>
+    <t>GreenPod Labs</t>
+  </si>
+  <si>
+    <t>Grip Invest</t>
+  </si>
+  <si>
+    <t>GrowFitter</t>
+  </si>
+  <si>
+    <t>Growfitter</t>
+  </si>
+  <si>
+    <t>Growth School</t>
+  </si>
+  <si>
+    <t>Gupshup</t>
+  </si>
+  <si>
+    <t>HEAPS</t>
+  </si>
+  <si>
+    <t>HOP Electric</t>
+  </si>
+  <si>
+    <t>HUVIAiR</t>
+  </si>
+  <si>
+    <t>HYPD</t>
+  </si>
+  <si>
+    <t>HackerRank</t>
+  </si>
+  <si>
+    <t>Happilo</t>
+  </si>
+  <si>
+    <t>Hbox</t>
+  </si>
+  <si>
+    <t>HealthQuad</t>
+  </si>
+  <si>
+    <t>Hero FinCorp</t>
+  </si>
+  <si>
+    <t>Hike</t>
+  </si>
+  <si>
+    <t>Hitachi</t>
+  </si>
+  <si>
+    <t>Hiver</t>
+  </si>
+  <si>
+    <t>Hono</t>
+  </si>
+  <si>
+    <t>HooLiv</t>
+  </si>
+  <si>
+    <t>Hospals</t>
+  </si>
+  <si>
+    <t>Hubble</t>
+  </si>
+  <si>
+    <t>Humpy Farms</t>
+  </si>
+  <si>
+    <t>INDmoney</t>
+  </si>
+  <si>
+    <t>InMobis Glance</t>
+  </si>
+  <si>
+    <t>Increff</t>
+  </si>
+  <si>
+    <t>IndiQube</t>
+  </si>
+  <si>
+    <t>IndiaP2P</t>
+  </si>
+  <si>
+    <t>Infurnia</t>
+  </si>
+  <si>
+    <t>Innoviti Payment Solutions</t>
+  </si>
+  <si>
+    <t>Ippo Pay</t>
+  </si>
+  <si>
+    <t>IvyCap Ventures</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Join Ventures</t>
+  </si>
+  <si>
+    <t>Josh Talks</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Just Dogs</t>
+  </si>
+  <si>
+    <t>Kaleidofin</t>
+  </si>
+  <si>
+    <t>Kalvi</t>
+  </si>
+  <si>
+    <t>Karbon Card</t>
+  </si>
+  <si>
+    <t>Kenko Health</t>
+  </si>
+  <si>
+    <t>KiarX</t>
+  </si>
+  <si>
+    <t>Kirana Bazaar</t>
+  </si>
+  <si>
+    <t>Kisanwala</t>
+  </si>
+  <si>
+    <t>Kissht</t>
+  </si>
+  <si>
+    <t>Kofluence</t>
+  </si>
+  <si>
+    <t>Kogta Financial</t>
+  </si>
+  <si>
+    <t>Kolo</t>
+  </si>
+  <si>
+    <t>Koo</t>
+  </si>
+  <si>
+    <t>Krishify</t>
+  </si>
+  <si>
+    <t>Kritsnam</t>
+  </si>
+  <si>
+    <t>Kuhoo</t>
+  </si>
+  <si>
+    <t>Kuku FM</t>
+  </si>
+  <si>
+    <t>LEAD School</t>
+  </si>
+  <si>
+    <t>LILA Games</t>
+  </si>
+  <si>
+    <t>Last9</t>
+  </si>
+  <si>
+    <t>Lauriko</t>
+  </si>
+  <si>
+    <t>Leaf Round</t>
+  </si>
+  <si>
+    <t>Lendingkart</t>
+  </si>
+  <si>
+    <t>Lenskart</t>
+  </si>
+  <si>
+    <t>Leverage Edu</t>
+  </si>
+  <si>
+    <t>Licious</t>
+  </si>
+  <si>
+    <t>Life &amp; Pursuits</t>
+  </si>
+  <si>
+    <t>Limechat</t>
+  </si>
+  <si>
+    <t>LivFin</t>
+  </si>
+  <si>
+    <t>Livspace</t>
+  </si>
+  <si>
+    <t>LoadShare</t>
+  </si>
+  <si>
+    <t>Lobb</t>
+  </si>
+  <si>
+    <t>Loco</t>
+  </si>
+  <si>
+    <t>Locofast</t>
+  </si>
+  <si>
+    <t>Logibricks</t>
+  </si>
+  <si>
+    <t>Logically</t>
+  </si>
+  <si>
+    <t>Lummo</t>
+  </si>
+  <si>
+    <t>MTR Foods</t>
+  </si>
+  <si>
+    <t>Mahindra Logistics</t>
+  </si>
+  <si>
+    <t>Mamaearth</t>
+  </si>
+  <si>
+    <t>Mango Point</t>
+  </si>
+  <si>
+    <t>MatchLog</t>
+  </si>
+  <si>
+    <t>MediBuddy</t>
+  </si>
+  <si>
+    <t>Medisage</t>
+  </si>
+  <si>
+    <t>MedisimVR</t>
+  </si>
+  <si>
+    <t>Meesho</t>
+  </si>
+  <si>
+    <t>Mentor Match</t>
+  </si>
+  <si>
+    <t>Meraqui</t>
+  </si>
+  <si>
+    <t>Mesh</t>
+  </si>
+  <si>
+    <t>Metasky</t>
+  </si>
+  <si>
+    <t>MinIO</t>
+  </si>
+  <si>
+    <t>MindTickle</t>
+  </si>
+  <si>
+    <t>Mintifi</t>
+  </si>
+  <si>
+    <t>Mivi</t>
+  </si>
+  <si>
+    <t>MoEVing</t>
+  </si>
+  <si>
+    <t>MoEngage</t>
+  </si>
+  <si>
+    <t>MobiKwik</t>
+  </si>
+  <si>
+    <t>Moglix'</t>
+  </si>
+  <si>
+    <t>Money View</t>
+  </si>
+  <si>
+    <t>Moneyboxx</t>
+  </si>
+  <si>
+    <t>MoooFarm</t>
+  </si>
+  <si>
+    <t>Multipl</t>
+  </si>
+  <si>
+    <t>Muvin</t>
+  </si>
+  <si>
+    <t>MyCaptain</t>
+  </si>
+  <si>
+    <t>Mylab Discovery Solutions</t>
+  </si>
+  <si>
+    <t>Myntra</t>
+  </si>
+  <si>
+    <t>Myraah</t>
+  </si>
+  <si>
+    <t>Nautilus Mobile</t>
+  </si>
+  <si>
+    <t>NewsReach</t>
+  </si>
+  <si>
+    <t>NoBroker</t>
+  </si>
+  <si>
+    <t>NowPurchase</t>
+  </si>
+  <si>
+    <t>NutriTap</t>
+  </si>
+  <si>
+    <t>Nutrify Today</t>
+  </si>
+  <si>
+    <t>Nykaa</t>
+  </si>
+  <si>
+    <t>O'hi</t>
+  </si>
+  <si>
+    <t>ORAI Robotics</t>
+  </si>
+  <si>
+    <t>OSlash</t>
+  </si>
+  <si>
+    <t>Oben Electric</t>
+  </si>
+  <si>
+    <t>OkCredit</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>Ola Electric</t>
+  </si>
+  <si>
+    <t>Oloid</t>
+  </si>
+  <si>
+    <t>OneCode</t>
+  </si>
+  <si>
+    <t>OneDios</t>
+  </si>
+  <si>
+    <t>OneTo11</t>
+  </si>
+  <si>
+    <t>Oorjaa</t>
+  </si>
+  <si>
+    <t>Otipy</t>
+  </si>
+  <si>
+    <t>Our Food</t>
+  </si>
+  <si>
+    <t>Oxyzo</t>
+  </si>
+  <si>
+    <t>Oyo</t>
+  </si>
+  <si>
+    <t>Paytm</t>
+  </si>
+  <si>
+    <t>Peakperformer</t>
+  </si>
+  <si>
+    <t>PensionBox</t>
+  </si>
+  <si>
+    <t>Pep Technologies Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Pepul</t>
+  </si>
+  <si>
+    <t>Perfios</t>
+  </si>
+  <si>
+    <t>Philips Electronics</t>
+  </si>
+  <si>
+    <t>Phool</t>
+  </si>
+  <si>
+    <t>Pi Beam Electric</t>
+  </si>
+  <si>
+    <t>Pi Ventures</t>
+  </si>
+  <si>
+    <t>Pickyourtrail</t>
+  </si>
+  <si>
+    <t>Pillow</t>
+  </si>
+  <si>
+    <t>Pine Labs</t>
+  </si>
+  <si>
+    <t>Pixxel</t>
+  </si>
+  <si>
+    <t>PlantVita</t>
+  </si>
+  <si>
+    <t>Pluckk</t>
+  </si>
+  <si>
+    <t>Plum</t>
+  </si>
+  <si>
+    <t>Pocket FM</t>
+  </si>
+  <si>
+    <t>Pocketly</t>
+  </si>
+  <si>
+    <t>Power Gummies</t>
+  </si>
+  <si>
+    <t>Praan</t>
+  </si>
+  <si>
+    <t>Pratech Brands</t>
+  </si>
+  <si>
+    <t>Prime Venture Partners</t>
+  </si>
+  <si>
+    <t>Proactive For Her</t>
+  </si>
+  <si>
+    <t>Prolance</t>
+  </si>
+  <si>
+    <t>Propdial</t>
+  </si>
+  <si>
+    <t>Propelld</t>
+  </si>
+  <si>
+    <t>Prozo</t>
+  </si>
+  <si>
+    <t>QPe</t>
+  </si>
+  <si>
+    <t>Qarmatek</t>
+  </si>
+  <si>
+    <t>Qure.ai</t>
+  </si>
+  <si>
+    <t>RENEE Cosmetics</t>
+  </si>
+  <si>
+    <t>Raise Financial</t>
+  </si>
+  <si>
+    <t>RapiPay</t>
+  </si>
+  <si>
+    <t>Razorpay</t>
+  </si>
+  <si>
+    <t>Rebel Foods</t>
+  </si>
+  <si>
+    <t>Recykal</t>
+  </si>
+  <si>
+    <t>Red Basil Technologies</t>
+  </si>
+  <si>
+    <t>Refyne</t>
+  </si>
+  <si>
+    <t>RetainIQ</t>
+  </si>
+  <si>
+    <t>Revoh</t>
+  </si>
+  <si>
+    <t>Rigi</t>
+  </si>
+  <si>
+    <t>Rooter</t>
+  </si>
+  <si>
+    <t>Runo</t>
+  </si>
+  <si>
+    <t>RupeeRedee</t>
+  </si>
+  <si>
+    <t>Rupeek</t>
+  </si>
+  <si>
+    <t>Rupifi</t>
+  </si>
+  <si>
+    <t>SIDBI Venture Capital</t>
+  </si>
+  <si>
+    <t>SaaS Labs</t>
+  </si>
+  <si>
+    <t>Sahicoin</t>
+  </si>
+  <si>
+    <t>SandLogic</t>
+  </si>
+  <si>
+    <t>SatSure</t>
+  </si>
+  <si>
+    <t>Scaler</t>
+  </si>
+  <si>
+    <t>Scripbox</t>
+  </si>
+  <si>
+    <t>Scrut Automation</t>
+  </si>
+  <si>
+    <t>Securden</t>
+  </si>
+  <si>
+    <t>Seekho.ai</t>
+  </si>
+  <si>
+    <t>ShareChat</t>
+  </si>
+  <si>
+    <t>Shipskart</t>
+  </si>
+  <si>
+    <t>Shipsy</t>
+  </si>
+  <si>
+    <t>Skillmatics</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>Snapmint</t>
+  </si>
+  <si>
+    <t>Social Swag</t>
+  </si>
+  <si>
+    <t>Spacejoy</t>
+  </si>
+  <si>
+    <t>Spinny</t>
+  </si>
+  <si>
+    <t>Sploot</t>
+  </si>
+  <si>
+    <t>Sprinto</t>
+  </si>
+  <si>
+    <t>Spyne</t>
+  </si>
+  <si>
+    <t>Stack Finance</t>
+  </si>
+  <si>
+    <t>StanPlus</t>
+  </si>
+  <si>
+    <t>Stanza Living</t>
+  </si>
+  <si>
+    <t>Stellapps</t>
+  </si>
+  <si>
+    <t>StockDaddy</t>
+  </si>
+  <si>
+    <t>StockGro</t>
+  </si>
+  <si>
+    <t>Stockal</t>
+  </si>
+  <si>
+    <t>Strawcture Eco</t>
+  </si>
+  <si>
+    <t>Super Bottoms</t>
+  </si>
+  <si>
+    <t>Super Scholar</t>
+  </si>
+  <si>
+    <t>SuperK</t>
+  </si>
+  <si>
+    <t>SuperOps.ai</t>
+  </si>
+  <si>
+    <t>SustainKart</t>
+  </si>
+  <si>
+    <t>Swiggy</t>
+  </si>
+  <si>
+    <t>TABPS Pets</t>
+  </si>
+  <si>
+    <t>Tata Digital</t>
+  </si>
+  <si>
+    <t>TestSigma</t>
+  </si>
+  <si>
+    <t>The Ayurveda Co</t>
+  </si>
+  <si>
+    <t>The Renal Project</t>
+  </si>
+  <si>
+    <t>The ePlane Company</t>
+  </si>
+  <si>
+    <t>Threedots</t>
+  </si>
+  <si>
+    <t>Trainn</t>
+  </si>
+  <si>
+    <t>Traya</t>
+  </si>
+  <si>
+    <t>Trifecta Capital</t>
+  </si>
+  <si>
+    <t>TrustCheckr</t>
+  </si>
+  <si>
+    <t>Turnip</t>
+  </si>
+  <si>
+    <t>UP Funds</t>
+  </si>
+  <si>
+    <t>UPCRED</t>
+  </si>
+  <si>
+    <t>Udaan</t>
+  </si>
+  <si>
+    <t>Unacademy</t>
+  </si>
+  <si>
+    <t>Uniphore</t>
+  </si>
+  <si>
+    <t>UpGrad</t>
+  </si>
+  <si>
+    <t>Upstox</t>
+  </si>
+  <si>
+    <t>Upswing Financial Technologies</t>
+  </si>
+  <si>
+    <t>Urban Company</t>
+  </si>
+  <si>
+    <t>V-Ensure</t>
+  </si>
+  <si>
+    <t>VDOC</t>
+  </si>
+  <si>
+    <t>Vajro</t>
+  </si>
+  <si>
+    <t>Vedantu</t>
+  </si>
+  <si>
+    <t>Verse Innovation</t>
+  </si>
+  <si>
+    <t>Vivriti Capital</t>
+  </si>
+  <si>
+    <t>Vyapar</t>
+  </si>
+  <si>
+    <t>WYLD</t>
+  </si>
+  <si>
+    <t>Waterfield Advisors</t>
+  </si>
+  <si>
+    <t>WayCool</t>
+  </si>
+  <si>
+    <t>We360.ai</t>
+  </si>
+  <si>
+    <t>Wealthy.in</t>
+  </si>
+  <si>
+    <t>Whitehar Jr</t>
+  </si>
+  <si>
+    <t>Wholsum Foods</t>
+  </si>
+  <si>
+    <t>Wildermart</t>
+  </si>
+  <si>
+    <t>Wiz Freight</t>
+  </si>
+  <si>
+    <t>Wooden Street</t>
+  </si>
+  <si>
+    <t>Xoxoday</t>
+  </si>
+  <si>
+    <t>Xpressbees</t>
+  </si>
+  <si>
+    <t>YouKraft</t>
+  </si>
+  <si>
+    <t>Your-Space</t>
+  </si>
+  <si>
+    <t>ZERUND</t>
+  </si>
+  <si>
+    <t>ZFW</t>
+  </si>
+  <si>
+    <t>Zama Organics</t>
+  </si>
+  <si>
+    <t>Zapkey</t>
+  </si>
+  <si>
+    <t>Zeta</t>
+  </si>
+  <si>
+    <t>ZingHR</t>
+  </si>
+  <si>
+    <t>Zipy</t>
+  </si>
+  <si>
+    <t>Zuper</t>
+  </si>
+  <si>
+    <t>ekincare</t>
+  </si>
+  <si>
+    <t>iD Fresh Foods</t>
+  </si>
+  <si>
+    <t>iMocha</t>
+  </si>
+  <si>
+    <t>iTribe</t>
+  </si>
+  <si>
+    <t>inFeedo</t>
+  </si>
+  <si>
+    <t>nCORE Games</t>
+  </si>
+  <si>
+    <t>o9 Solutions</t>
+  </si>
+  <si>
+    <t>toothsi</t>
+  </si>
+  <si>
+    <t>xto10x</t>
+  </si>
+  <si>
+    <t>zeda.io</t>
+  </si>
+  <si>
+    <t>$10,000,000</t>
+  </si>
+  <si>
+    <t>$700,000</t>
+  </si>
+  <si>
+    <t>$1,300,000</t>
+  </si>
+  <si>
+    <t>$18,300,000,000</t>
+  </si>
+  <si>
+    <t>$200,000</t>
+  </si>
+  <si>
+    <t>$458,000,000</t>
+  </si>
+  <si>
+    <t>$5,000,000</t>
+  </si>
+  <si>
+    <t>$132,000,000</t>
+  </si>
+  <si>
+    <t>$1,600,000</t>
+  </si>
+  <si>
+    <t>$400,000</t>
+  </si>
+  <si>
+    <t>$1,500,000</t>
+  </si>
+  <si>
+    <t>$60,000,000</t>
+  </si>
+  <si>
+    <t>$500,000</t>
+  </si>
+  <si>
+    <t>$40,000,000</t>
+  </si>
+  <si>
+    <t>$95,000,000</t>
+  </si>
+  <si>
+    <t>$240.2</t>
+  </si>
+  <si>
+    <t>$1,000,000</t>
+  </si>
+  <si>
+    <t>$23000000</t>
+  </si>
+  <si>
+    <t>$7,000,000</t>
+  </si>
+  <si>
+    <t>$9,000,000</t>
+  </si>
+  <si>
+    <t>$28,000,000</t>
+  </si>
+  <si>
+    <t>$1,100,000</t>
+  </si>
+  <si>
+    <t>$45,000,000</t>
+  </si>
+  <si>
+    <t>Vaibhav Anant</t>
+  </si>
+  <si>
+    <t>$280,000</t>
+  </si>
+  <si>
+    <t>$2,000,000</t>
+  </si>
+  <si>
+    <t>$700,500,000</t>
+  </si>
+  <si>
+    <t>$4,800,000</t>
+  </si>
+  <si>
+    <t>$800,000</t>
+  </si>
+  <si>
+    <t>$364,000,000</t>
+  </si>
+  <si>
+    <t>$30,000,000</t>
+  </si>
+  <si>
+    <t>$6,000,000</t>
+  </si>
+  <si>
+    <t>$600,000</t>
+  </si>
+  <si>
+    <t>$18,000,000</t>
+  </si>
+  <si>
+    <t>$3,300,000</t>
+  </si>
+  <si>
+    <t>$13,000,000</t>
+  </si>
+  <si>
+    <t>$1,300,000,000</t>
+  </si>
+  <si>
+    <t>$50,000,000</t>
+  </si>
+  <si>
+    <t>$1,40,000</t>
+  </si>
+  <si>
+    <t>$250,000</t>
+  </si>
+  <si>
+    <t>$61,000,000</t>
+  </si>
+  <si>
+    <t>$468.200,000$250,000,000</t>
+  </si>
+  <si>
+    <t>$2,500,000</t>
+  </si>
+  <si>
+    <t>$15,000,000</t>
+  </si>
+  <si>
+    <t>$75,000,000</t>
+  </si>
+  <si>
+    <t>$3,000,000</t>
+  </si>
+  <si>
+    <t>$129.500,000$70,000,000</t>
+  </si>
+  <si>
+    <t>$109,000,000</t>
+  </si>
+  <si>
+    <t>$300,600,000</t>
+  </si>
+  <si>
+    <t>$115,000,000</t>
+  </si>
+  <si>
+    <t>$137,000,000</t>
+  </si>
+  <si>
+    <t>5,000,000</t>
+  </si>
+  <si>
+    <t>$47,000,000</t>
+  </si>
+  <si>
+    <t>$2,200,000</t>
+  </si>
+  <si>
+    <t>$72,000,000</t>
+  </si>
+  <si>
+    <t>$624.800,000$45,000,000</t>
+  </si>
+  <si>
+    <t>$1,800,000</t>
+  </si>
+  <si>
+    <t>$97,500,000</t>
+  </si>
+  <si>
+    <t>12,000,000</t>
+  </si>
+  <si>
+    <t>$6,700,000</t>
+  </si>
+  <si>
+    <t>$49.900,000</t>
+  </si>
+  <si>
+    <t>$333,000,000</t>
+  </si>
+  <si>
+    <t>$240,000,000</t>
+  </si>
+  <si>
+    <t>$15,300,000</t>
+  </si>
+  <si>
+    <t>$485</t>
+  </si>
+  <si>
+    <t>$300,000,000</t>
+  </si>
+  <si>
+    <t>$750,000</t>
+  </si>
+  <si>
+    <t>$350,000,000</t>
+  </si>
+  <si>
+    <t>$116,000,000</t>
+  </si>
+  <si>
+    <t>$520,000</t>
+  </si>
+  <si>
+    <t>$1,200,000,000</t>
+  </si>
+  <si>
+    <t>$32,000,000</t>
+  </si>
+  <si>
+    <t>$27,000,000</t>
+  </si>
+  <si>
+    <t>$23,000,000</t>
+  </si>
+  <si>
+    <t>$65,000,000</t>
+  </si>
+  <si>
+    <t>$74,140</t>
+  </si>
+  <si>
+    <t>$728.100,000</t>
+  </si>
+  <si>
+    <t>$19,000,000</t>
+  </si>
+  <si>
+    <t>$67,600,000</t>
+  </si>
+  <si>
+    <t>$32.400,000</t>
+  </si>
+  <si>
+    <t>$17,500,000</t>
+  </si>
+  <si>
+    <t>$9,800,000</t>
+  </si>
+  <si>
+    <t>$1,200,000</t>
+  </si>
+  <si>
+    <t>$550,000,000</t>
+  </si>
+  <si>
+    <t>$3,200,000</t>
+  </si>
+  <si>
+    <t>$60000000</t>
+  </si>
+  <si>
+    <t>$25,000,000</t>
+  </si>
+  <si>
+    <t>$160,000,000</t>
+  </si>
+  <si>
+    <t>$267,000,000</t>
+  </si>
+  <si>
+    <t>$22,000,000</t>
+  </si>
+  <si>
+    <t>$39,000,000</t>
+  </si>
+  <si>
+    <t>$3,500,000</t>
+  </si>
+  <si>
+    <t>$12,300,000</t>
+  </si>
+  <si>
+    <t>$200,000,000</t>
+  </si>
+  <si>
+    <t>$12,000,000</t>
+  </si>
+  <si>
+    <t>$215,000,000</t>
+  </si>
+  <si>
+    <t>1,700,000</t>
+  </si>
+  <si>
+    <t>$32,800,000</t>
+  </si>
+  <si>
+    <t>$4,000,000</t>
+  </si>
+  <si>
+    <t>$111,000,000</t>
+  </si>
+  <si>
+    <t>$4,600,000</t>
+  </si>
+  <si>
+    <t>$6,200,000</t>
+  </si>
+  <si>
+    <t>$20,000,000</t>
+  </si>
+  <si>
+    <t>20,000,000</t>
+  </si>
+  <si>
+    <t>$100,000,000</t>
+  </si>
+  <si>
+    <t>$37,000,000</t>
+  </si>
+  <si>
+    <t>$300,000</t>
+  </si>
+  <si>
+    <t>$5,900,000</t>
+  </si>
+  <si>
+    <t>$899,300,000</t>
+  </si>
+  <si>
+    <t>$488,700,000$150,000,000</t>
+  </si>
+  <si>
+    <t>$431.6$180,000,000</t>
+  </si>
+  <si>
+    <t>40,000,000</t>
+  </si>
+  <si>
+    <t>$24,000,000</t>
+  </si>
+  <si>
+    <t>$80,000,000$80,000,000</t>
+  </si>
+  <si>
+    <t>$2,500,000,000</t>
+  </si>
+  <si>
+    <t>$110.800,000$52,000,000</t>
+  </si>
+  <si>
+    <t>$125,000,000</t>
+  </si>
+  <si>
+    <t>$530,000,000</t>
+  </si>
+  <si>
+    <t>$1,100,000,000</t>
+  </si>
+  <si>
+    <t>1,000,000</t>
+  </si>
+  <si>
+    <t>$16,100,000</t>
+  </si>
+  <si>
+    <t>2,000,000</t>
+  </si>
+  <si>
+    <t>$281,000,000</t>
+  </si>
+  <si>
+    <t>133,000,000</t>
+  </si>
+  <si>
+    <t>$165.5</t>
+  </si>
+  <si>
+    <t>$250,000,000</t>
+  </si>
+  <si>
+    <t>$2,400,000</t>
+  </si>
+  <si>
+    <t>$350,000</t>
+  </si>
+  <si>
+    <t>$5,400,000</t>
+  </si>
+  <si>
+    <t>$426,000,000</t>
+  </si>
+  <si>
+    <t>$2,400,000$2,400,000</t>
+  </si>
+  <si>
+    <t>$148.500,000</t>
+  </si>
+  <si>
+    <t>$84.2</t>
+  </si>
+  <si>
+    <t>$5,000,000,000</t>
+  </si>
+  <si>
+    <t>32,000,000</t>
+  </si>
+  <si>
+    <t>$160,000</t>
+  </si>
+  <si>
+    <t>$68,000,000</t>
+  </si>
+  <si>
+    <t>$9,400,000</t>
+  </si>
+  <si>
+    <t>$1,700,000</t>
+  </si>
+  <si>
+    <t>$1,200,000,000$150,000,000$20,000,000$50,000,000</t>
+  </si>
+  <si>
+    <t>$35,000,000</t>
+  </si>
+  <si>
+    <t>$120,000,000</t>
+  </si>
+  <si>
+    <t>$5,500,000</t>
+  </si>
+  <si>
+    <t>$100,000</t>
+  </si>
+  <si>
+    <t>$741,600,000</t>
+  </si>
+  <si>
+    <t>$14,500,000</t>
+  </si>
+  <si>
+    <t>$82,000,000</t>
+  </si>
+  <si>
+    <t>$2,300,000</t>
+  </si>
+  <si>
+    <t>$34,000,000</t>
+  </si>
+  <si>
+    <t>$42,000,000</t>
+  </si>
+  <si>
+    <t>$1,750,000</t>
+  </si>
+  <si>
+    <t>$55,000,000</t>
+  </si>
+  <si>
+    <t>$21,000,000</t>
+  </si>
+  <si>
+    <t>$11.700,000$11,700,000</t>
+  </si>
+  <si>
+    <t>$1,400,000,000</t>
+  </si>
+  <si>
+    <t>$2,700,000</t>
+  </si>
+  <si>
+    <t>$23</t>
+  </si>
+  <si>
+    <t>$513,500,000</t>
+  </si>
+  <si>
+    <t>$57,000,000</t>
+  </si>
+  <si>
+    <t>$14,800,000</t>
+  </si>
+  <si>
+    <t>$375,000</t>
+  </si>
+  <si>
+    <t>$14,000,000</t>
+  </si>
+  <si>
+    <t>$500,000Undisclosed</t>
+  </si>
+  <si>
+    <t>Undisclosed$700,000,000</t>
+  </si>
+  <si>
+    <t>$838,500,000</t>
+  </si>
+  <si>
+    <t>$400,000,000</t>
+  </si>
+  <si>
+    <t>$201,000,000</t>
+  </si>
+  <si>
+    <t>$29,000,000</t>
+  </si>
+  <si>
+    <t>$445,900,000</t>
+  </si>
+  <si>
+    <t>$8,500,000</t>
+  </si>
+  <si>
+    <t>$292,900,000</t>
+  </si>
+  <si>
+    <t>$1,700,000,000</t>
+  </si>
+  <si>
+    <t>$221.5</t>
+  </si>
+  <si>
+    <t>$7,500,000</t>
+  </si>
+  <si>
+    <t>$11.300,000</t>
+  </si>
+  <si>
+    <t>$36,000,000</t>
+  </si>
+  <si>
+    <t>$34.100,000</t>
+  </si>
+  <si>
+    <t>$577,600,000$300,000,000</t>
+  </si>
+  <si>
+    <t>76,000,000</t>
+  </si>
+  <si>
+    <t>$415,000</t>
+  </si>
+  <si>
+    <t>$295,000,000</t>
   </si>
 </sst>
 </file>
@@ -698,4 +2478,3321 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B413"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B115" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B125" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B126" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B131" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B138" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B141" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B142" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B143" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B146" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B147" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B148" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B151" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B154" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B155" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B156" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B157" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B158" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B159" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B161" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B162" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B163" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B165" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B166" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B167" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B168" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B169" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B170" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B171" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B172" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B173" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B174" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B175" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B176" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B177" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B178" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B179" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B180" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B181" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B182" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B183" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B184" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B185" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B186" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B187" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B188" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B189" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B190" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B191" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B192" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B193" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B194" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B195" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B196" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B197" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B198" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B199" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B200" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B201" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B202" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B203" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B204" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B205" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B206" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B207" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B208" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B209" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B210" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B211" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B212" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B213" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B214" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B215" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B216" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B217" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B218" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B219" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B220" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B221" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B222" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B223" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B224" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B225" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B226" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B227" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B228" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B229" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B230" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B231" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B232" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B234" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B235" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B236" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B237" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B238" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B239" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B240" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B241" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B242" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B243" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B244" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B245" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B246" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B247" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B248" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B249" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B250" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B251" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B252" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B253" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B254" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B255" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B256" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B257" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B258" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B259" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B260" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B261" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B262" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B263" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B264" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B265" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B266" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B267" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B268" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B269" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B270" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B271" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B272" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B273" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B274" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B275" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B276" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B277" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B278" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B279" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B280" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B281" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B282" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B283" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B284" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B285" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B286" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B287" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B288" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B289" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B290" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B291" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B292" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B293" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B294" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B295" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B296" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B297" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B298" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B299" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B300" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B301" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B302" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B303" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B304" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B305" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B306" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B307" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B308" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B309" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B310" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B311" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B312" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B313" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B314" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B315" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B316" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B317" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B318" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B319" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B320" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B321" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B322" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B323" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B324" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B325" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B326" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B327" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B328" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B329" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B330" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B331" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B332" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B333" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B334" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B335" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B336" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B337" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B338" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B339" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B340" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B341" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B342" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B343" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B344" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B345" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B346" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B347" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B348" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B349" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B350" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B351" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B352" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B353" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B354" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B355" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B356" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B357" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B359" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B360" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B361" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B362" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B363" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B364" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B365" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B366" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B367" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B368" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B369" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B370" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B371" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B372" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B373" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B374" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B375" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B376" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B377" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B378" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B379" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B380" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B381" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B382" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B383" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B384" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B385" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B386" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B387" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B388" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B389" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B390" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B391" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B392" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B393" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B394" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B395" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B396" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B397" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B398" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B399" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B400" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B401" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B402" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B403" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B404" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B405" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B406" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B407" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B408" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B409" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B410" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B411" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B412" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B413" t="s">
+        <v>518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>